--- a/nmadb/480655.xlsx
+++ b/nmadb/480655.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="13940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -124,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -683,23 +684,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="8"/>
-    <col min="5" max="6" width="8.83203125" style="12"/>
-    <col min="7" max="7" width="8.83203125" style="8"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="8"/>
+    <col min="5" max="6" width="8.85546875" style="12"/>
+    <col min="7" max="7" width="8.85546875" style="8"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -782,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="34">
         <v>1998</v>
       </c>
@@ -1052,7 +1053,7 @@
       </c>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="34">
         <v>2002</v>
       </c>
@@ -1551,12 +1552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1568,12 +1569,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
